--- a/Plot_tool/xlsx/TPHLCT1_8x8.xlsx
+++ b/Plot_tool/xlsx/TPHLCT1_8x8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2EEB5B7-CC63-488B-ADC1-274903A86F9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0675CF-0B4A-4DB8-A6B3-5BFD636A38C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="7"/>
+    <workbookView xWindow="13350" yWindow="1920" windowWidth="11310" windowHeight="11835" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Milkdrop" sheetId="7" r:id="rId7"/>
     <sheet name="Sailboat" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.00000"/>
@@ -361,23 +361,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Accent" xfId="1"/>
-    <cellStyle name="Accent 1" xfId="2"/>
-    <cellStyle name="Accent 2" xfId="3"/>
-    <cellStyle name="Accent 3" xfId="4"/>
-    <cellStyle name="Bad" xfId="5"/>
-    <cellStyle name="Error" xfId="6"/>
-    <cellStyle name="Footnote" xfId="7"/>
-    <cellStyle name="Good" xfId="8"/>
-    <cellStyle name="Heading (user)" xfId="9"/>
-    <cellStyle name="Heading 1" xfId="10"/>
-    <cellStyle name="Heading 2" xfId="11"/>
-    <cellStyle name="Hyperlink" xfId="12"/>
-    <cellStyle name="Neutral" xfId="13"/>
-    <cellStyle name="Note" xfId="14"/>
-    <cellStyle name="Status" xfId="15"/>
-    <cellStyle name="Text" xfId="16"/>
-    <cellStyle name="Warning" xfId="17"/>
+    <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading (user)" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Neutral" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Status" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Text" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Warning" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -689,14 +689,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
@@ -705,7 +705,7 @@
     <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -731,7 +731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -757,7 +757,7 @@
         <v>1235214.8081161999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -777,7 +777,7 @@
         <v>7292.6767578125</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -797,7 +797,7 @@
         <v>6669.4114990234402</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -817,7 +817,7 @@
         <v>5920.6456298828098</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -837,7 +837,7 @@
         <v>5516.7177734375</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -857,7 +857,7 @@
         <v>5227.4982299804697</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -877,7 +877,7 @@
         <v>4993.4202880859402</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -897,7 +897,7 @@
         <v>4681.2408447265598</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -917,7 +917,7 @@
         <v>4613.6160278320303</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -937,7 +937,7 @@
         <v>4394.6759033203098</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -957,7 +957,7 @@
         <v>4272.9511108398401</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -977,7 +977,7 @@
         <v>4165.1521606445303</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -997,9 +997,6 @@
         <v>4084.2897338867201</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25"/>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="15"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
@@ -1011,14 +1008,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -1026,7 +1023,7 @@
     <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -1078,7 +1075,7 @@
         <v>1848942.3684253399</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -1098,7 +1095,7 @@
         <v>6971.5700683593795</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -1118,7 +1115,7 @@
         <v>7293.4347534179697</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -1138,7 +1135,7 @@
         <v>7984.515625</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -1158,7 +1155,7 @@
         <v>8641.5636596679706</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -1178,7 +1175,7 @@
         <v>9330.3102416992206</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -1198,7 +1195,7 @@
         <v>9676.6519165039099</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -1218,7 +1215,7 @@
         <v>9695.5346069335901</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -1238,7 +1235,7 @@
         <v>10034.1192626953</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -1258,7 +1255,7 @@
         <v>10097.788452148399</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -1278,7 +1275,7 @@
         <v>10074.465393066401</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -1298,7 +1295,7 @@
         <v>9918.7076416015607</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -1318,8 +1315,6 @@
         <v>9766.1761474609393</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="15"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
@@ -1331,14 +1326,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -1346,7 +1341,7 @@
     <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -1398,7 +1393,7 @@
         <v>1386835.9321962199</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -1418,7 +1413,7 @@
         <v>6477.708984375</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -1438,7 +1433,7 @@
         <v>6059.3115844726599</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -1458,7 +1453,7 @@
         <v>5516.6739501953098</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -1478,7 +1473,7 @@
         <v>5293.4496459960901</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -1498,7 +1493,7 @@
         <v>5143.7043457031295</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -1518,7 +1513,7 @@
         <v>4917.4872436523401</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -1538,7 +1533,7 @@
         <v>4658.6177978515598</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -1558,7 +1553,7 @@
         <v>4494.2201538085901</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -1578,7 +1573,7 @@
         <v>4354.0551147460901</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -1598,7 +1593,7 @@
         <v>4247.8262939453098</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -1618,7 +1613,7 @@
         <v>4163.0715332031295</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -1638,8 +1633,6 @@
         <v>3966.8013305664099</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="15"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
@@ -1651,14 +1644,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -1666,7 +1659,7 @@
     <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +1685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -1718,7 +1711,7 @@
         <v>1497098.6181085201</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -1738,7 +1731,7 @@
         <v>4107.9928588867197</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -1758,7 +1751,7 @@
         <v>3920.9588012695299</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -1778,7 +1771,7 @@
         <v>3730.005859375</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -1798,7 +1791,7 @@
         <v>3520.6278076171898</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -1818,27 +1811,27 @@
         <v>3321.9056396484398</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
       <c r="B8">
-        <v>11.39</v>
+        <v>10.1</v>
       </c>
       <c r="C8" s="3">
-        <v>28.9476514079117</v>
+        <v>28.542392754108398</v>
       </c>
       <c r="D8" s="4">
-        <v>0.74649858374283296</v>
+        <v>0.730181542863369</v>
       </c>
       <c r="E8" s="1">
-        <v>8342.93603515625</v>
+        <v>8713.9969482421802</v>
       </c>
       <c r="F8" s="1">
-        <v>3109.5971069335901</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
+        <v>3211.4230346679601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -1858,7 +1851,7 @@
         <v>3109.5971069335901</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -1878,7 +1871,7 @@
         <v>3060.58203125</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -1898,7 +1891,7 @@
         <v>3001.6050415039099</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -1918,7 +1911,7 @@
         <v>3006.8927001953102</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -1938,7 +1931,7 @@
         <v>3005.98</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -1958,8 +1951,6 @@
         <v>2939.1635131835901</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="15"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
@@ -1971,14 +1962,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -1986,7 +1977,7 @@
     <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2012,7 +2003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -2038,7 +2029,7 @@
         <v>1117062.7593439899</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -2058,7 +2049,7 @@
         <v>4619.2868652343705</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -2078,7 +2069,7 @@
         <v>4214.9850463867197</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -2098,7 +2089,7 @@
         <v>3787.7120361328102</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -2118,7 +2109,7 @@
         <v>3323.7877807617201</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -2138,7 +2129,7 @@
         <v>3144.5582275390602</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -2158,7 +2149,7 @@
         <v>2954.4902954101599</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -2178,7 +2169,7 @@
         <v>2778.52465820312</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -2198,7 +2189,7 @@
         <v>2720.89</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -2218,7 +2209,7 @@
         <v>2548.8051147460901</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -2238,7 +2229,7 @@
         <v>2494.3389282226599</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -2258,7 +2249,7 @@
         <v>2362.2329711914099</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -2278,8 +2269,6 @@
         <v>2508.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="15"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
@@ -2291,14 +2280,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AMJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" style="9" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="7" customWidth="1"/>
@@ -2307,7 +2296,7 @@
     <col min="7" max="1024" width="10.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2333,7 +2322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="6">
         <v>0.2</v>
       </c>
@@ -2359,7 +2348,7 @@
         <v>3415689.0543431998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="6">
         <v>0.25</v>
       </c>
@@ -2379,7 +2368,7 @@
         <v>10768.72</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>0.3</v>
       </c>
@@ -2399,7 +2388,7 @@
         <v>11671.71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>0.35</v>
       </c>
@@ -2419,7 +2408,7 @@
         <v>12111.51</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>0.4</v>
       </c>
@@ -2439,7 +2428,7 @@
         <v>12507.5509033203</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>0.45</v>
       </c>
@@ -2459,7 +2448,7 @@
         <v>12712.723327636701</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>0.5</v>
       </c>
@@ -2479,7 +2468,7 @@
         <v>12344.755371093799</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>0.55000000000000004</v>
       </c>
@@ -2499,7 +2488,7 @@
         <v>12528.622375488299</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>0.6</v>
       </c>
@@ -2519,7 +2508,7 @@
         <v>12582.657043457</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>0.65</v>
       </c>
@@ -2539,7 +2528,7 @@
         <v>12537.883300781299</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>0.7</v>
       </c>
@@ -2559,7 +2548,7 @@
         <v>12606.076538085899</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>0.75</v>
       </c>
@@ -2579,7 +2568,7 @@
         <v>12530.120666503901</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>0.8</v>
       </c>
@@ -2599,9 +2588,6 @@
         <v>12597.1708984375</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25"/>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="15"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
@@ -2613,14 +2599,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="3" customWidth="1"/>
@@ -2629,7 +2615,7 @@
     <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2655,7 +2641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="6">
         <v>0.2</v>
       </c>
@@ -2681,7 +2667,7 @@
         <v>795259.45482427103</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="6">
         <v>0.25</v>
       </c>
@@ -2701,7 +2687,7 @@
         <v>2353.7413330078102</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="6">
         <v>0.3</v>
       </c>
@@ -2721,7 +2707,7 @@
         <v>1865.1237182617199</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="6">
         <v>0.35</v>
       </c>
@@ -2741,7 +2727,7 @@
         <v>1552.48571777344</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="6">
         <v>0.4</v>
       </c>
@@ -2761,7 +2747,7 @@
         <v>1539.0756225585901</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="6">
         <v>0.45</v>
       </c>
@@ -2781,7 +2767,7 @@
         <v>1448.60363769531</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="6">
         <v>0.5</v>
       </c>
@@ -2801,7 +2787,7 @@
         <v>1398.7855834960901</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="6">
         <v>0.55000000000000004</v>
       </c>
@@ -2821,7 +2807,7 @@
         <v>1384.16516113281</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="6">
         <v>0.6</v>
       </c>
@@ -2841,27 +2827,27 @@
         <v>1348.1964721679699</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="6">
         <v>0.65</v>
       </c>
       <c r="B11" s="7">
-        <v>32.06</v>
+        <v>28.92</v>
       </c>
       <c r="C11" s="15">
-        <v>36.511524117323397</v>
+        <v>36.170948006026997</v>
       </c>
       <c r="D11" s="15">
-        <v>0.89007622001806297</v>
+        <v>0.88270622205851301</v>
       </c>
       <c r="E11" s="6">
-        <v>2705.9012451171898</v>
+        <v>2762.82934570312</v>
       </c>
       <c r="F11" s="6">
-        <v>1263.7885131835901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25">
+        <v>1295.68579101562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="6">
         <v>0.7</v>
       </c>
@@ -2881,7 +2867,7 @@
         <v>1263.7885131835901</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>0.75</v>
       </c>
@@ -2901,7 +2887,7 @@
         <v>1264.8806762695301</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="6">
         <v>0.8</v>
       </c>
@@ -2921,8 +2907,6 @@
         <v>1280.7478637695301</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="15"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
@@ -2934,14 +2918,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -2949,7 +2933,7 @@
     <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2975,7 +2959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -3001,7 +2985,7 @@
         <v>1912498.64772055</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -3021,7 +3005,7 @@
         <v>10458.070983886701</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -3041,7 +3025,7 @@
         <v>9395.2973022460901</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -3061,7 +3045,7 @@
         <v>8720.2622680664099</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -3081,7 +3065,7 @@
         <v>8100.6862182617197</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -3101,7 +3085,7 @@
         <v>7631.4200439453098</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -3121,7 +3105,7 @@
         <v>7347.7571411132803</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -3141,7 +3125,7 @@
         <v>7009.1398925781295</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -3161,7 +3145,7 @@
         <v>6729.2117919921902</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -3181,7 +3165,7 @@
         <v>6607.1658325195303</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -3201,7 +3185,7 @@
         <v>6277.6486206054697</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -3221,7 +3205,7 @@
         <v>6249.4837646484402</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -3241,11 +3225,10 @@
         <v>6115.4297485351599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="15"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;Cページ &amp;P</oddFooter>
